--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43003,6 +43003,41 @@
         <v>82100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>160100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43038,6 +43038,41 @@
         <v>160100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>122400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43073,6 +43073,41 @@
         <v>122400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>159500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43108,6 +43108,41 @@
         <v>159500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1200500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43143,6 +43143,41 @@
         <v>1200500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>337400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43178,6 +43178,41 @@
         <v>337400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>207400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43213,6 +43213,41 @@
         <v>207400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>156800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,6 +43248,41 @@
         <v>156800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>390800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43283,6 +43283,41 @@
         <v>390800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>273000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43318,6 +43318,41 @@
         <v>273000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>472600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43353,6 +43353,41 @@
         <v>472600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>340700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43388,6 +43388,41 @@
         <v>340700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>217900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43423,6 +43423,76 @@
         <v>217900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>383900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>512500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43493,6 +43493,76 @@
         <v>512500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>359600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>111200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43563,6 +43563,41 @@
         <v>111200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>62900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43598,6 +43598,41 @@
         <v>62900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>141500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         <v>141500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>169000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>169000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>917300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,76 @@
         <v>917300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>309900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>313100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>313100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>617500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>617500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1221500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75413,6 +75413,41 @@
         <v>1221500</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>1132700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75448,6 +75448,41 @@
         <v>1132700</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>772100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2145"/>
+  <dimension ref="A1:I2146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75483,6 +75483,41 @@
         <v>772100</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>505700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2146"/>
+  <dimension ref="A1:I2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75518,6 +75518,41 @@
         <v>505700</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>657600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2147"/>
+  <dimension ref="A1:I2148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75553,6 +75553,41 @@
         <v>657600</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>694600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2148"/>
+  <dimension ref="A1:I2149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75588,6 +75588,41 @@
         <v>694600</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>1041400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2149"/>
+  <dimension ref="A1:I2150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75623,6 +75623,41 @@
         <v>1041400</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>697000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2150"/>
+  <dimension ref="A1:I2151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75658,6 +75658,41 @@
         <v>697000</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>1178900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2151"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75693,6 +75693,41 @@
         <v>1178900</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>638600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2152"/>
+  <dimension ref="A1:I2153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75728,6 +75728,41 @@
         <v>638600</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>1433800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2153"/>
+  <dimension ref="A1:I2154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75763,6 +75763,41 @@
         <v>1433800</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>1069100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2154"/>
+  <dimension ref="A1:I2155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75798,6 +75798,41 @@
         <v>1069100</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>1310300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2155"/>
+  <dimension ref="A1:I2156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75833,6 +75833,41 @@
         <v>1310300</v>
       </c>
     </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>1887600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2156"/>
+  <dimension ref="A1:I2157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75868,6 +75868,41 @@
         <v>1887600</v>
       </c>
     </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>957400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2157"/>
+  <dimension ref="A1:I2158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75903,6 +75903,41 @@
         <v>957400</v>
       </c>
     </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>808300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78178,6 +78178,41 @@
         <v>808300</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>1028300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78213,6 +78213,41 @@
         <v>1028300</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>1050400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78248,6 +78248,41 @@
         <v>1050400</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>544300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78283,6 +78283,41 @@
         <v>544300</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>749200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78318,6 +78318,41 @@
         <v>749200</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>546900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78353,6 +78353,41 @@
         <v>546900</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>523200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78388,6 +78388,41 @@
         <v>523200</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>375900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78423,6 +78423,41 @@
         <v>375900</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>571300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78458,6 +78458,41 @@
         <v>571300</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>326800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78493,6 +78493,41 @@
         <v>326800</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>381200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78528,6 +78528,76 @@
         <v>381200</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>889500</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>1217900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78598,6 +78598,41 @@
         <v>1217900</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>589700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78633,6 +78633,111 @@
         <v>589700</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>347300</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>252700</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>630900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78738,6 +78738,41 @@
         <v>630900</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>343200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78773,6 +78773,41 @@
         <v>343200</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>315100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7252.xlsx
+++ b/data/7252.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78808,6 +78808,111 @@
         <v>315100</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>700500</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>860400</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>TEOSENG</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>838300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
